--- a/Entregables/Vilma/PrimerPago/Plan de Trabajo.xlsx
+++ b/Entregables/Vilma/PrimerPago/Plan de Trabajo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vilma\Documents\GitHub\oim\Entregables\Vilma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vilma\Documents\GitHub\oim\Entregables\Vilma\PrimerPago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3886576-DD18-45CB-A1A2-CA2A358EE3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFE3E4E-4428-45BC-9C12-32C63259D078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6CD651BA-B82E-41AD-A478-47AFEB5F40CF}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PLAN DE TRABAJO'!$A$1:$O$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PLAN DE TRABAJO'!$A$1:$O$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PLAN DE TRABAJO'!$A$1:$O$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'PLAN DE TRABAJO'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Producto</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>1 al 2</t>
-  </si>
-  <si>
-    <t>Documento</t>
   </si>
   <si>
     <t>Plan de Trabajo</t>
@@ -160,19 +157,10 @@
     <t>Analisis, pleaneación y diseño de los formularios a realizar</t>
   </si>
   <si>
-    <t>Mockups</t>
-  </si>
-  <si>
     <t>Envio de correo elctronico con el plan de trabajo y los documentos de analisis y planeación</t>
   </si>
   <si>
-    <t>Documento y Mockups</t>
-  </si>
-  <si>
     <t>Reuniones con los usuarios funcionales del requerimiento</t>
-  </si>
-  <si>
-    <t>Actas de asistencia</t>
   </si>
   <si>
     <t>Desarrollo en Maariv de:
@@ -197,10 +185,49 @@
 - GENERACIÓN DE REPORTES DINÁMICOS</t>
   </si>
   <si>
-    <t>Elaborar documentacion solicitada</t>
-  </si>
-  <si>
     <t>Documentos y manuales</t>
+  </si>
+  <si>
+    <t>Informe de avance</t>
+  </si>
+  <si>
+    <t>Codigo fuente y acta de aceptación</t>
+  </si>
+  <si>
+    <t>Elaborar documentacion solicitada:
+- Manual de Usuario
+- Manual de Administración
+- Diagrama de clases
+- Diagrama de componentes
+- Documentación que se acuerde con el grupo de retornos y reubicaciones sobre el diseño, ajuste y/o actualización de la base de datos.</t>
+  </si>
+  <si>
+    <t>Documento de:
+ESPECIFICACIÓN DE REQUERIMIENTOS PLAN ACCIÓN DE TRASLADO</t>
+  </si>
+  <si>
+    <t>Documento de:
+BALANCE DEL ACOMPAÑAMIENTOPLAN DE ACCION DE TRASLADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envio de correo con todos los soportes del primer informe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborado por: </t>
+  </si>
+  <si>
+    <t>Vilma Liliana Rodriguez</t>
+  </si>
+  <si>
+    <t>Septiembre de 2020</t>
+  </si>
+  <si>
+    <t>Soporte de asistencia</t>
+  </si>
+  <si>
+    <t>Mockups de :
+- ESPECIFICACIÓN DE REQUERIMIENTOS PLAN ACCIÓN DE TRASLADO
+- BALANCE DEL ACOMPAÑAMIENTOPLAN DE ACCION DE TRASLADO</t>
   </si>
 </sst>
 </file>
@@ -248,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -385,11 +412,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -425,14 +463,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -445,29 +513,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,6 +534,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>46603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1407585</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D6BBCC-A775-4BC5-8F55-6660EC913BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3820584" y="12376186"/>
+          <a:ext cx="1248834" cy="810647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,18 +884,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E1A686-5141-414A-8F73-D25FEA0E75F0}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12:M13"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="30" style="3" customWidth="1"/>
     <col min="5" max="15" width="7.28515625" style="1" customWidth="1"/>
@@ -804,112 +904,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>23</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -921,16 +1021,16 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
       <c r="B5" s="22"/>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -942,20 +1042,20 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="21" t="s">
-        <v>24</v>
+    <row r="6" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+        <v>49</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -965,18 +1065,18 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -986,156 +1086,156 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="21" t="s">
-        <v>29</v>
+    <row r="8" spans="1:15" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="22"/>
+    <row r="11" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="E11" s="13"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1143,20 +1243,22 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="22"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1165,43 +1267,79 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-    </row>
-    <row r="16" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="26"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -1210,6 +1348,7 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.74803149606299213"/>
-  <pageSetup scale="58" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="43" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>